--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_128.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_128.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,704 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(0.28, 102.52)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(1.9, 101.9)]</t>
+          <t>[('0:00:17.560000', '0:00:47.240000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:14.700000', '0:01:34.120000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_232</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5833333333333334</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[['C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:16.179070', '0:00:21.844739')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(23.26, 29.8)]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(74.9, 93.84)]</t>
+          <t>[('0:01:33.260000', '0:01:42.460000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:01:36.740000', '0:01:48.820000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(7.54, 122.26)]</t>
+          <t>[['C', 'F/5', 'C']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(5.36, 110.76)]</t>
+          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(9.26, 13.9)]</t>
+          <t>[('0:00:21.780000', '0:00:25.300000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:01:06.920000', '0:01:08.180000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(0.3, 4.8)]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(12.82, 24.9)]</t>
+          <t>[('0:00:34.560000', '0:00:36.420000'), ('0:00:34.340000', '0:00:35.880000'), ('0:00:08.300000', '0:00:12.960000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:12.260000', '0:00:25.040000'), ('0:00:49.400000', '0:00:56.760000'), ('0:00:01.440000', '0:00:06.660000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_95</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1229096989966555</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:min', 'F#:min', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_224</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1120923913043478</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:min', 'A:min/C', 'D:maj']]</t>
+          <t>[['C#:7', 'F#:maj', 'C#:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(39.979523, 47.885918)]</t>
+          <t>[['E:7', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(5.02, 8.7)]</t>
+          <t>[('0:00:49.480000', '0:00:52.180000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
+          <t>[('0:00:55.002834', '0:00:59.124376')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_205</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.08760545100584036</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['B:min', 'E', 'E/2']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(100.24, 104.56)]</t>
+          <t>[['G:min/A#', 'C:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(107.1, 111.48)]</t>
+          <t>[('0:00:59.162887', '0:01:05.559465')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:06.820000', '0:00:08.760000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>isophonics_238</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_205</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.05572139303482587</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['C', 'F:min', 'F:min/5']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(74.7, 94.12)]</t>
+          <t>[['E', 'A:min', 'A:min/b7']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(117.68, 119.48)]</t>
+          <t>[('0:00:41.384331', '0:00:46.388231')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:14.868843', '0:00:21.242721')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_192</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_211</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(5.20815, 11.03585)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(18.32, 25.82)]</t>
+          <t>[('0:00:49.140000', '0:01:02.460000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:00.240000', '0:00:07.820000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.146875</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Bb', 'F'], ['Eb', 'F', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'E'], ['D', 'E', 'A']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(29.719863, 35.722222), (44.917324, 48.272607)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(92.74687, 96.589773), (3.605464, 10.96619)]</t>
+          <t>[('0:00:00.780000', '0:01:36.780000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
+          <t>[('0:00:00.820000', '0:01:47.920000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07542426147077311</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(0.36, 5.0)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[('0:00:10.200000', '0:00:29.800000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:05.780000', '0:00:21')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7556818181818181</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
+          <t>[['C', 'G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04), (25.48, 32.58)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(2.86, 5.3), (0.38, 3.7)]</t>
+          <t>[('0:01:10.519024', '0:01:22.732721')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:25.180000', '0:00:55.620000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>1</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(84.92, 105.44)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(88.18, 109.56)]</t>
+          <t>[('0:00:00.220000', '0:00:21.940000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:02.360000', '0:00:24.960000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_179</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'B:maj', 'B:(3,#5,7)/A#', 'G#:min', 'G#:hdim7/F#', 'C#:7/F', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(35.82, 37.76), (35.6, 37.24), (8.46, 13.46)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(9.64, 22.68), (50.58, 59.48), (0.36, 5.0)]</t>
+          <t>[('0:00:00.660000', '0:00:13.920000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(14.16, 28.96), (56.78, 65.58), (1.92, 8.32)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(35.82, 37.76), (35.6, 37.24), (8.46, 13.46)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:00.220000', '0:00:15.080000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
